--- a/Pixel_Defense/Assets/Xlsx/data.xlsx
+++ b/Pixel_Defense/Assets/Xlsx/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huni0\Pixel_Defense\Pixel_Defense\Assets\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED487CA-29B3-4E56-A697-F776097C9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31942EA4-F3A3-4A10-956C-9569E3AE5438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23535" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Monsters" sheetId="2" r:id="rId2"/>
+    <sheet name="towers" sheetId="1" r:id="rId1"/>
+    <sheet name="monsters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,43 +36,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asf</t>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 사제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계</t>
+  </si>
+  <si>
+    <t>4단계</t>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 사제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0:1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0:2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0:3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0:4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0:6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob/CluckingChickenIdleSide.prefab</t>
+  </si>
+  <si>
+    <t>prefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,68 +491,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -470,15 +693,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467E10A-6DC6-4F47-A1A4-ACA0EB91E3DC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="35.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,51 +712,111 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
